--- a/TeensyMaestro BOM.xlsx
+++ b/TeensyMaestro BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenko\Documents\TeensyMaestro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E336DFDB-3CEE-4CB7-8B0A-3CA037210C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C353BF99-E2CD-4E4A-98FA-8AF8AF5EB016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Teensy 4.1</t>
   </si>
@@ -168,7 +168,34 @@
     <t>3mm fine pitch countersunk screws for the encoders.  Length to be determined by the thickness of your front panel</t>
   </si>
   <si>
-    <t>very expensive, but excellent quality.  Any 1:1, 2:1 or 4:1 encoder should work (one to four pulses per detent click).  Bourns PEC11 series encoders are a good, low-cost substitute.  Available from Adafruit.</t>
+    <t>Panel Mount Extension USB Cable - Micro B Male to Micro B Female.  Other options are available like Micro B Male to USB B Female or Mini B Female.</t>
+  </si>
+  <si>
+    <t>Alternate Parts:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.adafruit.com/product/377 </t>
+  </si>
+  <si>
+    <t>4:1 encoders with soft touch knobs</t>
+  </si>
+  <si>
+    <t>very expensive, but excellent quality.  Any 1:1, 2:1 or 4:1 encoder should work (one to four pulses per detent click).  Bourns PEC11 series encoders are a good, low-cost substitute.  Available from Adafruit. See Alternate Parts, below.</t>
+  </si>
+  <si>
+    <t>1K resistors, 1/8 watt</t>
+  </si>
+  <si>
+    <t>E-Projects B-0004-H15 Ceramic Disc Capacitor, 50V, 0.01uF, 103 (Pack of 25): Amazon.com: Industrial &amp; Scientific</t>
+  </si>
+  <si>
+    <t>25-packs .01 uf disc caps from switch and encoder inputs to ground</t>
+  </si>
+  <si>
+    <t>3904, 2N2222 or other smal signal NPN transistor</t>
+  </si>
+  <si>
+    <t>Less than half the cost of the LeoBodnar encoders and knobs</t>
   </si>
 </sst>
 </file>
@@ -218,7 +245,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -234,6 +261,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -574,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F34" sqref="F33:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +671,7 @@
         <v>1.05</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D19" si="0">C3 * A3</f>
+        <f t="shared" ref="D3:D23" si="0">C3 * A3</f>
         <v>2.1</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -765,7 +795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -781,6 +811,9 @@
       </c>
       <c r="E10" s="5" t="s">
         <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -858,7 +891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -876,7 +909,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -938,33 +971,107 @@
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5.66</v>
+      </c>
+      <c r="D19" s="2">
+        <f>C19 * A19</f>
+        <v>11.32</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2">
+        <f>C20 * A20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>6</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C21" s="2">
         <v>0.1</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D21" s="2">
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22" si="1">C22 * A22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="2">
-        <f>SUM(D2:D20)</f>
-        <v>298.20000000000005</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
+        <f>SUM(D2:D23)</f>
+        <v>309.52000000000004</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28" si="2">C28*A28</f>
+        <v>36.449999999999996</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -986,9 +1093,11 @@
     <hyperlink ref="E16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="E18" display="https://www.amazon.com/BUD-Industries-PC-11491-Plastic-Natural/dp/B005T58ZTO?pd_rd_w=JGqou&amp;pf_rd_p=a92e0124-cfa8-4f1e-82b5-a4a348d97008&amp;pf_rd_r=6ZHQ0F7JBHGVC76JZ5NG&amp;pd_rd_r=2ed9bf9d-9621-4641-b295-554902d74187&amp;pd_rd_wg=URGt2&amp;pd_rd_i=B005T58ZTO&amp;ref_=pd_bap" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="E17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E28" r:id="rId15" xr:uid="{43F44B2A-E181-430A-94BC-67D032A3190E}"/>
+    <hyperlink ref="E19" r:id="rId16" display="https://www.amazon.com/Projects-B-0004-H15-Ceramic-Capacitor-0-01uF/dp/B07SXRLHLR/ref=sr_1_4?dchild=1&amp;keywords=.01+capacitor&amp;qid=1610037224&amp;sr=8-4" xr:uid="{4388D30C-44CE-45CD-B6F6-72BC2F397A93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/TeensyMaestro BOM.xlsx
+++ b/TeensyMaestro BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenko\Documents\TeensyMaestro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C353BF99-E2CD-4E4A-98FA-8AF8AF5EB016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F75AFC6-2EDF-43D1-A615-ADA629C57F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,21 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Teensy 4.1</t>
   </si>
@@ -90,9 +100,6 @@
     <t>.01 jumpers female/male</t>
   </si>
   <si>
-    <t>makes it easy to plug together, you may prefer soldering</t>
-  </si>
-  <si>
     <t>https://www.sparkfun.com/products/9056</t>
   </si>
   <si>
@@ -196,6 +203,21 @@
   </si>
   <si>
     <t>Less than half the cost of the LeoBodnar encoders and knobs</t>
+  </si>
+  <si>
+    <t>The STMPE610 has gone unobtanium.  It will still be supported in the Teensy firmware, so if you have one or can get one, it will work fine.  See TSC2007, below for its replacement.</t>
+  </si>
+  <si>
+    <t>TSC2007 touch screen controller</t>
+  </si>
+  <si>
+    <t>Adafruit TSC2007 I2C Resistive Touch Screen Controller [STEMMA QT] : ID 5423 : $4.95 : Adafruit Industries, Unique &amp; fun DIY electronics and kits</t>
+  </si>
+  <si>
+    <t>Replacement for STMPE610</t>
+  </si>
+  <si>
+    <t>makes it easy to plug together, soldering connections is highly recommended</t>
   </si>
 </sst>
 </file>
@@ -221,12 +243,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -245,7 +273,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -264,6 +292,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -604,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F33:F34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +714,7 @@
         <v>1.05</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D23" si="0">C3 * A3</f>
+        <f t="shared" ref="D3:D24" si="0">C3 * A3</f>
         <v>2.1</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -735,72 +778,75 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>4.95</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>1.95</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>3.9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4.95</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>4.95</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2">
         <v>4.95</v>
@@ -810,67 +856,67 @@
         <v>4.95</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2">
-        <v>4.5</v>
+        <v>4.95</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.95</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>18.690000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>37.380000000000003</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -878,226 +924,245 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>37.380000000000003</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2">
         <v>9.8800000000000008</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>19.760000000000002</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="2">
-        <v>7.93</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>71.37</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2">
-        <v>3.24</v>
+        <v>7.93</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>29.160000000000004</v>
+        <v>71.37</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>29.160000000000004</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    </row>
+    <row r="19" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2">
         <v>18.5</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="E19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2">
         <v>5.66</v>
-      </c>
-      <c r="D19" s="2">
-        <f>C19 * A19</f>
-        <v>11.32</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D20" s="2">
         <f>C20 * A20</f>
+        <v>11.32</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2">
+        <f>C21 * A21</f>
         <v>0</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2">
         <v>0.1</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="2">
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23" si="1">C23 * A23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="2">
+        <f>SUM(D2:D24)</f>
+        <v>304.52000000000004</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29" si="2">C29*A29</f>
+        <v>36.449999999999996</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" ref="D22" si="1">C22 * A22</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="2">
-        <f>SUM(D2:D23)</f>
-        <v>309.52000000000004</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>9</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2">
-        <v>4.05</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" ref="D28" si="2">C28*A28</f>
-        <v>36.449999999999996</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E14" display="https://www.amazon.com/mxuteuk-Aluminum-Potentiometer-Electric-KNOB-06-34BK/dp/B07TY32628?pd_rd_w=JGqou&amp;pf_rd_p=a92e0124-cfa8-4f1e-82b5-a4a348d97008&amp;pf_rd_r=6ZHQ0F7JBHGVC76JZ5NG&amp;pd_rd_r=2ed9bf9d-9621-4641-b295-554902d74187&amp;pd_rd_wg=URGt2&amp;pd_rd_i=B07TY3262" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E15" display="https://www.amazon.com/mxuteuk-Aluminum-Potentiometer-Electric-KNOB-06-34BK/dp/B07TY32628?pd_rd_w=JGqou&amp;pf_rd_p=a92e0124-cfa8-4f1e-82b5-a4a348d97008&amp;pf_rd_r=6ZHQ0F7JBHGVC76JZ5NG&amp;pd_rd_r=2ed9bf9d-9621-4641-b295-554902d74187&amp;pd_rd_wg=URGt2&amp;pd_rd_i=B07TY3262" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E13" display="https://www.amazon.com/Aideepen-Encoder-5V-24V-Incremental-Rotary/dp/B01MZ4V1XP?pd_rd_w=JGqou&amp;pf_rd_p=a92e0124-cfa8-4f1e-82b5-a4a348d97008&amp;pf_rd_r=6ZHQ0F7JBHGVC76JZ5NG&amp;pd_rd_r=2ed9bf9d-9621-4641-b295-554902d74187&amp;pd_rd_wg=URGt2&amp;pd_rd_i=B01MZ4V1XP&amp;ref_=pd_" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E18" display="https://www.amazon.com/BUD-Industries-PC-11491-Plastic-Natural/dp/B005T58ZTO?pd_rd_w=JGqou&amp;pf_rd_p=a92e0124-cfa8-4f1e-82b5-a4a348d97008&amp;pf_rd_r=6ZHQ0F7JBHGVC76JZ5NG&amp;pd_rd_r=2ed9bf9d-9621-4641-b295-554902d74187&amp;pd_rd_wg=URGt2&amp;pd_rd_i=B005T58ZTO&amp;ref_=pd_bap" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E28" r:id="rId15" xr:uid="{43F44B2A-E181-430A-94BC-67D032A3190E}"/>
-    <hyperlink ref="E19" r:id="rId16" display="https://www.amazon.com/Projects-B-0004-H15-Ceramic-Capacitor-0-01uF/dp/B07SXRLHLR/ref=sr_1_4?dchild=1&amp;keywords=.01+capacitor&amp;qid=1610037224&amp;sr=8-4" xr:uid="{4388D30C-44CE-45CD-B6F6-72BC2F397A93}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E14" display="https://www.amazon.com/Aideepen-Encoder-5V-24V-Incremental-Rotary/dp/B01MZ4V1XP?pd_rd_w=JGqou&amp;pf_rd_p=a92e0124-cfa8-4f1e-82b5-a4a348d97008&amp;pf_rd_r=6ZHQ0F7JBHGVC76JZ5NG&amp;pd_rd_r=2ed9bf9d-9621-4641-b295-554902d74187&amp;pd_rd_wg=URGt2&amp;pd_rd_i=B01MZ4V1XP&amp;ref_=pd_" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E19" display="https://www.amazon.com/BUD-Industries-PC-11491-Plastic-Natural/dp/B005T58ZTO?pd_rd_w=JGqou&amp;pf_rd_p=a92e0124-cfa8-4f1e-82b5-a4a348d97008&amp;pf_rd_r=6ZHQ0F7JBHGVC76JZ5NG&amp;pd_rd_r=2ed9bf9d-9621-4641-b295-554902d74187&amp;pd_rd_wg=URGt2&amp;pd_rd_i=B005T58ZTO&amp;ref_=pd_bap" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E29" r:id="rId15" xr:uid="{43F44B2A-E181-430A-94BC-67D032A3190E}"/>
+    <hyperlink ref="E20" r:id="rId16" display="https://www.amazon.com/Projects-B-0004-H15-Ceramic-Capacitor-0-01uF/dp/B07SXRLHLR/ref=sr_1_4?dchild=1&amp;keywords=.01+capacitor&amp;qid=1610037224&amp;sr=8-4" xr:uid="{4388D30C-44CE-45CD-B6F6-72BC2F397A93}"/>
+    <hyperlink ref="E8" r:id="rId17" display="https://www.adafruit.com/product/5423" xr:uid="{F2FC8680-475A-4293-9787-C04891884D5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
